--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C6A37C-765C-4BEE-8226-36275276137D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BC5D6C-F98F-4225-9F3D-E4A000C17F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8430" yWindow="0" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
+    <workbookView xWindow="9255" yWindow="0" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -579,7 +579,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>30000001</v>
+        <v>21234567</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -588,7 +588,7 @@
         <v>16</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>30000002</v>
+        <v>20000002</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E3">
         <v>1</v>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BC5D6C-F98F-4225-9F3D-E4A000C17F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB454E2D-0FE5-4B4C-81D9-52B62A8EDF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9255" yWindow="0" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rank</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>maxHealth</t>
   </si>
   <si>
@@ -75,10 +71,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dashRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>critRate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -100,6 +92,30 @@
   </si>
   <si>
     <t>도적</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxEXP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>job</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dashCoolTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knockbackPower</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB2F3BC-9C83-4699-B76B-7A58A03E3709}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -516,19 +532,19 @@
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="7.25" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="10" max="10" width="15.375" customWidth="1"/>
-    <col min="11" max="11" width="15.75" customWidth="1"/>
-    <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="13.625" customWidth="1"/>
-    <col min="16" max="23" width="20.625" customWidth="1"/>
+    <col min="7" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="7.25" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
+    <col min="11" max="11" width="15.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="16.25" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="15.75" customWidth="1"/>
+    <col min="16" max="16" width="13.625" customWidth="1"/>
+    <col min="17" max="24" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,62 +552,73 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>21234567</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>60</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -600,75 +627,99 @@
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="I2">
-        <v>10</v>
-      </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>5</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.2</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000002</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
       <c r="D3">
         <v>50</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>0.2</v>
+      </c>
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>15</v>
-      </c>
-      <c r="J3">
+      <c r="N3">
         <v>5</v>
       </c>
-      <c r="K3">
-        <v>0.2</v>
-      </c>
-      <c r="L3">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB454E2D-0FE5-4B4C-81D9-52B62A8EDF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E339C322-AA0A-401E-9C4B-8E45AEE4121C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9255" yWindow="0" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -116,6 +116,10 @@
   </si>
   <si>
     <t>knockbackPower</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>startItemID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +606,9 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1"/>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -662,6 +668,9 @@
       <c r="S2">
         <v>100</v>
       </c>
+      <c r="T2">
+        <v>10111011</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -720,6 +729,9 @@
       </c>
       <c r="S3">
         <v>100</v>
+      </c>
+      <c r="T3">
+        <v>10121011</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E339C322-AA0A-401E-9C4B-8E45AEE4121C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CED9FB-88C6-49A9-A08C-7BA86A75240F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9255" yWindow="0" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB2F3BC-9C83-4699-B76B-7A58A03E3709}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -645,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="L2">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="L3">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="M3">
         <v>1</v>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CED9FB-88C6-49A9-A08C-7BA86A75240F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660C9041-A053-4CA1-9A07-862D1CDF0569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9255" yWindow="0" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -645,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="M3">
         <v>1</v>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660C9041-A053-4CA1-9A07-862D1CDF0569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2786EE-B472-4C40-BFEB-D3A5639DB518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9255" yWindow="0" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -645,7 +645,7 @@
         <v>5</v>
       </c>
       <c r="L2">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="L3">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="M3">
         <v>1</v>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2786EE-B472-4C40-BFEB-D3A5639DB518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608FE346-4F46-42F0-8E79-397276CCF3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9255" yWindow="0" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -120,6 +109,14 @@
   </si>
   <si>
     <t>startItemID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefabPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player/Prefabs/MC24</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -522,33 +519,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB2F3BC-9C83-4699-B76B-7A58A03E3709}">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="7.25" customWidth="1"/>
-    <col min="10" max="10" width="17.125" customWidth="1"/>
-    <col min="11" max="11" width="15.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="16.25" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="15.75" customWidth="1"/>
-    <col min="16" max="16" width="13.625" customWidth="1"/>
-    <col min="17" max="24" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="34.125" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="7.25" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="16.25" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="15.75" customWidth="1"/>
+    <col min="17" max="17" width="13.625" customWidth="1"/>
+    <col min="18" max="25" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -556,103 +554,103 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>21234567</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>60</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>3</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>5</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.25</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
         <v>0</v>
       </c>
@@ -660,19 +658,22 @@
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>1</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
         <v>100</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>10111011</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000002</v>
       </c>
@@ -680,20 +681,20 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>0</v>
       </c>
@@ -701,36 +702,39 @@
         <v>0</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>20</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>5</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.25</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>5</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>1</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>100</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>10121011</v>
       </c>
     </row>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608FE346-4F46-42F0-8E79-397276CCF3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842BFB90-A590-462E-973B-A4BCCA6425CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
+    <workbookView xWindow="3120" yWindow="0" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t>Player/Prefabs/MC24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>startInventory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -519,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB2F3BC-9C83-4699-B76B-7A58A03E3709}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -546,7 +550,7 @@
     <col min="18" max="25" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,8 +614,11 @@
       <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>21234567</v>
       </c>
@@ -670,10 +677,13 @@
         <v>100</v>
       </c>
       <c r="U2">
-        <v>10111011</v>
+        <v>10113011</v>
+      </c>
+      <c r="V2">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000002</v>
       </c>
@@ -735,7 +745,10 @@
         <v>100</v>
       </c>
       <c r="U3">
-        <v>10121011</v>
+        <v>10112011</v>
+      </c>
+      <c r="V3">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842BFB90-A590-462E-973B-A4BCCA6425CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4DD654-9E2A-44C3-B397-FAFE7DE7B0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="0" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
+    <workbookView xWindow="0" yWindow="2160" windowWidth="28800" windowHeight="12540" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB2F3BC-9C83-4699-B76B-7A58A03E3709}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -680,7 +680,7 @@
         <v>10113011</v>
       </c>
       <c r="V2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -748,7 +748,7 @@
         <v>10112011</v>
       </c>
       <c r="V3">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4DD654-9E2A-44C3-B397-FAFE7DE7B0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC484C74-039D-4176-B116-B6A6E78946B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2160" windowWidth="28800" windowHeight="12540" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
+    <workbookView xWindow="3120" yWindow="0" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -121,6 +121,10 @@
   </si>
   <si>
     <t>startInventory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player/Prefabs/MC01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -525,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB2F3BC-9C83-4699-B76B-7A58A03E3709}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -625,6 +629,9 @@
       <c r="B2" t="s">
         <v>13</v>
       </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
       <c r="D2" t="s">
         <v>14</v>
       </c>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC484C74-039D-4176-B116-B6A6E78946B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F84DB3-D1AF-45B7-89F9-151E32BA8D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="0" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -530,7 +530,7 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F84DB3-D1AF-45B7-89F9-151E32BA8D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423D7DA2-7F25-454A-ABE5-DEC34ADD7517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="26415" windowHeight="12540" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>Player/Prefabs/MC01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -527,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB2F3BC-9C83-4699-B76B-7A58A03E3709}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -554,7 +558,7 @@
     <col min="18" max="25" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,8 +625,11 @@
       <c r="V1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>21234567</v>
       </c>
@@ -689,8 +696,11 @@
       <c r="V2">
         <v>10</v>
       </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000002</v>
       </c>
@@ -756,6 +766,9 @@
       </c>
       <c r="V3">
         <v>10</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F84DB3-D1AF-45B7-89F9-151E32BA8D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C1E0DE-BAB9-4C1B-91EC-8C18A1BA18D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
+    <workbookView xWindow="945" yWindow="660" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -125,6 +125,18 @@
   </si>
   <si>
     <t>Player/Prefabs/MC01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단단하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날렵하다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -527,34 +539,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB2F3BC-9C83-4699-B76B-7A58A03E3709}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="34.125" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
-    <col min="8" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="7.25" customWidth="1"/>
-    <col min="11" max="11" width="17.125" customWidth="1"/>
-    <col min="12" max="12" width="15.375" customWidth="1"/>
-    <col min="13" max="13" width="14.625" customWidth="1"/>
-    <col min="14" max="14" width="16.25" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="15.75" customWidth="1"/>
-    <col min="17" max="17" width="13.625" customWidth="1"/>
-    <col min="18" max="25" width="20.625" customWidth="1"/>
+    <col min="3" max="4" width="34.125" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="9" max="10" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="7.25" customWidth="1"/>
+    <col min="12" max="12" width="17.125" customWidth="1"/>
+    <col min="13" max="13" width="15.375" customWidth="1"/>
+    <col min="14" max="14" width="14.625" customWidth="1"/>
+    <col min="15" max="15" width="16.25" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="15.75" customWidth="1"/>
+    <col min="18" max="18" width="13.625" customWidth="1"/>
+    <col min="19" max="26" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,64 +577,67 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>21234567</v>
       </c>
@@ -633,41 +648,41 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>60</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.25</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
       <c r="P2">
         <v>0</v>
       </c>
@@ -675,22 +690,25 @@
         <v>0</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>1</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
       <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>100</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>10113011</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20000002</v>
       </c>
@@ -701,20 +719,20 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>50</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
@@ -722,39 +740,42 @@
         <v>0</v>
       </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>20</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>5</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.25</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>5</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>1</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
       <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>100</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>10112011</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>10</v>
       </c>
     </row>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423D7DA2-7F25-454A-ABE5-DEC34ADD7517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8B9423-0574-4D52-8623-BB40E38C77E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="26415" windowHeight="12540" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C1E0DE-BAB9-4C1B-91EC-8C18A1BA18D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C23B84-ADCC-4A41-9904-6BF4388ECB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="660" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -84,18 +84,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LV</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxEXP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>job</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -108,10 +96,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>startItemID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>prefabPath</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -120,10 +104,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>startInventory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Player/Prefabs/MC01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -137,6 +117,26 @@
   </si>
   <si>
     <t>날렵하다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_lv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_exp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_maxEXP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_startItemID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_startInventory</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB2F3BC-9C83-4699-B76B-7A58A03E3709}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -574,13 +574,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -595,7 +595,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
@@ -610,7 +610,7 @@
         <v>9</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>10</v>
@@ -622,19 +622,19 @@
         <v>12</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -645,10 +645,10 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -716,10 +716,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C23B84-ADCC-4A41-9904-6BF4388ECB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451E3E23-0A57-460D-8ABA-60CAF7F9D949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="945" yWindow="0" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB2F3BC-9C83-4699-B76B-7A58A03E3709}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451E3E23-0A57-460D-8ABA-60CAF7F9D949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD9C6CB-ED97-43F3-BD21-B020E8940727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB2F3BC-9C83-4699-B76B-7A58A03E3709}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -702,7 +702,7 @@
         <v>100</v>
       </c>
       <c r="V2">
-        <v>10113011</v>
+        <v>10111011</v>
       </c>
       <c r="W2">
         <v>10</v>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD9C6CB-ED97-43F3-BD21-B020E8940727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A635034-16CE-4CDB-8029-4C36743A1535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB2F3BC-9C83-4699-B76B-7A58A03E3709}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A635034-16CE-4CDB-8029-4C36743A1535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AF34F9-DB41-47A0-85FA-CFC1E3A5E63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="15720" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB2F3BC-9C83-4699-B76B-7A58A03E3709}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -773,7 +773,7 @@
         <v>100</v>
       </c>
       <c r="V3">
-        <v>10112011</v>
+        <v>10121011</v>
       </c>
       <c r="W3">
         <v>10</v>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AF34F9-DB41-47A0-85FA-CFC1E3A5E63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6E1D26-EA99-4DA0-A0E1-562D728E296B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB2F3BC-9C83-4699-B76B-7A58A03E3709}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q3">
         <v>0</v>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6E1D26-EA99-4DA0-A0E1-562D728E296B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D359F0C1-0D7C-44E0-A21C-EA4290F9F4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB2F3BC-9C83-4699-B76B-7A58A03E3709}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlqja\Unity Project\Sisyphus\Assets\Excel\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D359F0C1-0D7C-44E0-A21C-EA4290F9F4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A211942-D664-473B-B044-BF78024C1F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>attackRange</t>
   </si>
   <si>
-    <t>meleeAtk</t>
-  </si>
-  <si>
     <t>magicAtk</t>
   </si>
   <si>
@@ -112,14 +109,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>단단하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날렵하다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>_lv</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -137,6 +126,18 @@
   </si>
   <si>
     <t>_startInventory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>physicalAtk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 사용시 6초간 치명타 확률이 40퍼 증가하고 공격속도가 5% 증가한다 쿨타임 : 20초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 사용시 10초간 방어력이 60 증가하고 최대체력의 50%의 쉴드를 얻는다 쿨타임 : 20초</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -541,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB2F3BC-9C83-4699-B76B-7A58A03E3709}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -574,13 +575,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -589,52 +590,52 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="S1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
@@ -642,16 +643,16 @@
         <v>21234567</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
       </c>
       <c r="F2">
         <v>60</v>
@@ -713,16 +714,16 @@
         <v>20000002</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -731,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -758,7 +759,7 @@
         <v>10</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3">
         <v>0</v>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A211942-D664-473B-B044-BF78024C1F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BA7618-871D-44EC-B627-B246ABD2D937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="17520" windowHeight="15600" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
+    <workbookView xWindow="720" yWindow="1005" windowWidth="37440" windowHeight="15345" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB2F3BC-9C83-4699-B76B-7A58A03E3709}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -774,7 +774,7 @@
         <v>100</v>
       </c>
       <c r="V3">
-        <v>10121011</v>
+        <v>10112011</v>
       </c>
       <c r="W3">
         <v>10</v>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BA7618-871D-44EC-B627-B246ABD2D937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E46A4F-CC4A-4766-88EE-64B188F8F14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1005" windowWidth="37440" windowHeight="15345" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>스킬 사용시 10초간 방어력이 60 증가하고 최대체력의 50%의 쉴드를 얻는다 쿨타임 : 20초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 캐릭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player/Prefabs/MC02</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -540,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB2F3BC-9C83-4699-B76B-7A58A03E3709}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -640,28 +652,28 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>21234567</v>
+        <v>20000000</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -670,13 +682,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2">
         <v>0.25</v>
@@ -700,39 +712,39 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="V2">
-        <v>10111011</v>
+        <v>10121011</v>
       </c>
       <c r="W2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>20000002</v>
+        <v>21234567</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -741,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>5</v>
@@ -756,10 +768,10 @@
         <v>1</v>
       </c>
       <c r="P3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -774,9 +786,80 @@
         <v>100</v>
       </c>
       <c r="V3">
+        <v>10111011</v>
+      </c>
+      <c r="W3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>20000002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>0.25</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>100</v>
+      </c>
+      <c r="V4">
         <v>10112011</v>
       </c>
-      <c r="W3">
+      <c r="W4">
         <v>10</v>
       </c>
     </row>

--- a/Assets/Excel/Player/PlayerDB_Sheet.xlsx
+++ b/Assets/Excel/Player/PlayerDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E46A4F-CC4A-4766-88EE-64B188F8F14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195A7429-D1EE-4013-940B-37BC487390F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E85DF98-53A6-47B1-9A2F-DAF49A7487B0}"/>
   </bookViews>
@@ -555,7 +555,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -694,7 +694,7 @@
         <v>0.25</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -765,7 +765,7 @@
         <v>0.25</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0.25</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4">
         <v>10</v>
